--- a/bots/crawl_ch/output/electronics_2022-07-21.xlsx
+++ b/bots/crawl_ch/output/electronics_2022-07-21.xlsx
@@ -531,80 +531,58 @@
       <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr">
         <is>
-          <t>2022-07-21 07:04:29</t>
+          <t>2022-07-21 20:57:28</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>4119046</t>
+          <t>6753975</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Varta Ultra Lithium AA 4er Bli</t>
+          <t>Severin Standgrill mit Grillplatte PG 8563</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aa/varta-ultra-lithium-aa-4er-bli/p/4119046</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>4ST</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>1</v>
-      </c>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/kuechengeraete/severin-standgrill-mit-grillplatte-pg-8563/p/6753975</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
       <c r="F3" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Varta</t>
+          <t>Severin</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>14.95</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>3.74/1ST</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>Preis pro 1 Stück</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>3.74</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
+          <t>74.50</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aa']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'kuechengeraete']</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>Varta Ultra Lithium AA 4er Bli 14.95 Schweizer Franken</t>
+          <t>Severin Standgrill mit Grillplatte PG 8563 50% Aktion 74.50 Schweizer Franken statt 149.00 Schweizer Franken</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>2022-07-21 07:04:29</t>
+          <t>2022-07-21 20:57:28</t>
         </is>
       </c>
     </row>
@@ -675,7 +653,7 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>2022-07-21 07:04:29</t>
+          <t>2022-07-21 20:57:28</t>
         </is>
       </c>
     </row>
@@ -748,7 +726,7 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>2022-07-21 07:04:29</t>
+          <t>2022-07-21 20:57:28</t>
         </is>
       </c>
     </row>
@@ -799,65 +777,67 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>2022-07-21 07:04:29</t>
+          <t>2022-07-21 20:57:28</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>3494230</t>
+          <t>3591269</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Varta Electronics V13GS / V357 1er Bli</t>
+          <t>Varta Longlife Max Power C 2er Bli</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/varta-electronics-v13gs--v357-1er-bli/p/3494230</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/varta-longlife-max-power-c-2er-bli/p/3591269</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
+          <t>2ST</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>1</v>
+      </c>
+      <c r="F7" t="n">
+        <v>5</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Varta</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>8.95</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>4.48/1ST</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>Preis pro 1 Stück</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
           <t>1ST</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>Varta</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>4.95</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>4.95/1ST</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>Preis pro 1 Stück</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>4.95</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
       <c r="M7" t="inlineStr">
         <is>
           <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'andere-batterien']</t>
@@ -865,102 +845,80 @@
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>Varta Electronics V13GS / V357 1er Bli 4.95 Schweizer Franken</t>
+          <t>Varta Longlife Max Power C 2er Bli 8.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>2022-07-21 07:04:29</t>
+          <t>2022-07-21 20:57:28</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>3591269</t>
+          <t>6266870</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Varta Longlife Max Power C 2er Bli</t>
+          <t>Reer Steckdosen-Sicherung Kappe Schweiz 8 Stück</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/varta-longlife-max-power-c-2er-bli/p/3591269</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>2ST</t>
-        </is>
-      </c>
-      <c r="E8" t="n">
-        <v>1</v>
-      </c>
+          <t>/de/haushalt-tier/elektroartikel-batterien/reer-steckdosen-sicherung-kappe-schweiz-8-stueck/p/6266870</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
       <c r="F8" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Varta</t>
+          <t>reer</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>8.95</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>4.48/1ST</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>Preis pro 1 Stück</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>4.48</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
       <c r="M8" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'andere-batterien']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien']</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>Varta Longlife Max Power C 2er Bli 8.95 Schweizer Franken</t>
+          <t>Reer Steckdosen-Sicherung Kappe Schweiz 8 Stück 3.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>2022-07-21 07:04:29</t>
+          <t>2022-07-21 20:57:28</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>6266870</t>
+          <t>5872158</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Reer Steckdosen-Sicherung Kappe Schweiz 8 Stück</t>
+          <t>satrap Tischventilator Venti 1</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/reer-steckdosen-sicherung-kappe-schweiz-8-stueck/p/6266870</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/satrap-tischventilator-venti-1/p/5872158</t>
         </is>
       </c>
       <c r="D9" t="inlineStr"/>
@@ -970,12 +928,12 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>reer</t>
+          <t>satrap</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>29.95</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -984,102 +942,120 @@
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'haushaltsgeraete-kabel']</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>Reer Steckdosen-Sicherung Kappe Schweiz 8 Stück 3.95 Schweizer Franken</t>
+          <t>satrap Tischventilator Venti 1 29.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>2022-07-21 07:04:29</t>
+          <t>2022-07-21 20:57:28</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>6872591</t>
+          <t>3494230</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Bosch Küchenmaschine MUM58243 1000W</t>
+          <t>Varta Electronics V13GS / V357 1er Bli</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/kuechengeraete/bosch-kuechenmaschine-mum58243-1000w/p/6872591</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr"/>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/varta-electronics-v13gs--v357-1er-bli/p/3494230</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1ST</t>
+        </is>
+      </c>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Bosch</t>
+          <t>Varta</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>239.50</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>4.95/1ST</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>Preis pro 1 Stück</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>1ST</t>
+        </is>
+      </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'kuechengeraete']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'andere-batterien']</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>Bosch Küchenmaschine MUM58243 1000W 50% Aktion 239.50 Schweizer Franken statt 479.00 Schweizer Franken</t>
+          <t>Varta Electronics V13GS / V357 1er Bli 4.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>2022-07-21 07:04:29</t>
+          <t>2022-07-21 20:57:28</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>6735643</t>
+          <t>6872591</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>LED 31V Anschlussset Transf.+Verl.kabel</t>
+          <t>Bosch Küchenmaschine MUM58243 1000W</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/haushalt-kueche/uebrige-haushaltsartikel/led-31v-anschlussset-transfverlkabel/p/6735643</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/kuechengeraete/bosch-kuechenmaschine-mum58243-1000w/p/6872591</t>
         </is>
       </c>
       <c r="D11" t="inlineStr"/>
-      <c r="E11" t="n">
-        <v>1</v>
-      </c>
+      <c r="E11" t="inlineStr"/>
       <c r="F11" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Bosch</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>9.95</t>
+          <t>239.50</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1088,49 +1064,51 @@
       <c r="L11" t="inlineStr"/>
       <c r="M11" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'haushalt-kueche', 'uebrige-haushaltsartikel']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'kuechengeraete']</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>LED 31V Anschlussset Transf.+Verl.kabel 50% Aktion 9.95 Schweizer Franken statt 19.95 Schweizer Franken</t>
+          <t>Bosch Küchenmaschine MUM58243 1000W 50% Aktion 239.50 Schweizer Franken statt 479.00 Schweizer Franken</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>2022-07-21 07:04:29</t>
+          <t>2022-07-21 20:57:28</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>5882124</t>
+          <t>6735643</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Philips Avent Audio Monitors DECT-Babyphone</t>
+          <t>LED 31V Anschlussset Transf.+Verl.kabel</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/philips-avent-audio-monitors-dect-babyphone/p/5882124</t>
+          <t>/de/haushalt-tier/haushalt-kueche/uebrige-haushaltsartikel/led-31v-anschlussset-transfverlkabel/p/6735643</t>
         </is>
       </c>
       <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
+      <c r="E12" t="n">
+        <v>1</v>
+      </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Avent</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>99.90</t>
+          <t>9.95</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1139,34 +1117,34 @@
       <c r="L12" t="inlineStr"/>
       <c r="M12" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete']</t>
+          <t>['haushalt-tier', 'haushalt-kueche', 'uebrige-haushaltsartikel']</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>Philips Avent Audio Monitors DECT-Babyphone 99.90 Schweizer Franken</t>
+          <t>LED 31V Anschlussset Transf.+Verl.kabel 50% Aktion 9.95 Schweizer Franken statt 19.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>2022-07-21 07:04:29</t>
+          <t>2022-07-21 20:57:28</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>6689619</t>
+          <t>5882124</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Philips Dampfstation HI5919/31</t>
+          <t>Philips Avent Audio Monitors DECT-Babyphone</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/philips-dampfstation-hi591931/p/6689619</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/philips-avent-audio-monitors-dect-babyphone/p/5882124</t>
         </is>
       </c>
       <c r="D13" t="inlineStr"/>
@@ -1176,12 +1154,12 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Philips</t>
+          <t>Avent</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>69.50</t>
+          <t>99.90</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -1190,51 +1168,49 @@
       <c r="L13" t="inlineStr"/>
       <c r="M13" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'haushaltsgeraete-kabel']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete']</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>Philips Dampfstation HI5919/31 50% Aktion 69.50 Schweizer Franken statt 139.00 Schweizer Franken</t>
+          <t>Philips Avent Audio Monitors DECT-Babyphone 99.90 Schweizer Franken</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>2022-07-21 07:04:29</t>
+          <t>2022-07-21 20:57:28</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>6425996</t>
+          <t>6689619</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>satrap espresso XA Kolbenkaffeemaschine</t>
+          <t>Philips Dampfstation HI5919/31</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/kuechengeraete/satrap-espresso-xa-kolbenkaffeemaschine/p/6425996</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/philips-dampfstation-hi591931/p/6689619</t>
         </is>
       </c>
       <c r="D14" t="inlineStr"/>
-      <c r="E14" t="n">
-        <v>7</v>
-      </c>
+      <c r="E14" t="inlineStr"/>
       <c r="F14" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>satrap</t>
+          <t>Philips</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>249.00</t>
+          <t>69.50</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -1243,40 +1219,42 @@
       <c r="L14" t="inlineStr"/>
       <c r="M14" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'kuechengeraete']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'haushaltsgeraete-kabel']</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>satrap espresso XA Kolbenkaffeemaschine 249.00 Schweizer Franken</t>
+          <t>Philips Dampfstation HI5919/31 50% Aktion 69.50 Schweizer Franken statt 139.00 Schweizer Franken</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>2022-07-21 07:04:29</t>
+          <t>2022-07-21 20:57:28</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>6125818</t>
+          <t>6425996</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>satrap Mano XA Handmixer</t>
+          <t>satrap espresso XA Kolbenkaffeemaschine</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/kuechengeraete/satrap-mano-xa-handmixer/p/6125818</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/kuechengeraete/satrap-espresso-xa-kolbenkaffeemaschine/p/6425996</t>
         </is>
       </c>
       <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
+      <c r="E15" t="n">
+        <v>7</v>
+      </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -1285,7 +1263,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>49.95</t>
+          <t>249.00</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -1299,29 +1277,29 @@
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>satrap Mano XA Handmixer 49.95 Schweizer Franken</t>
+          <t>satrap espresso XA Kolbenkaffeemaschine 249.00 Schweizer Franken</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>2022-07-21 07:04:29</t>
+          <t>2022-07-21 20:57:28</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>5831402</t>
+          <t>6125818</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Satrap Mikrowelle Micro M2</t>
+          <t>satrap Mano XA Handmixer</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/kuechengeraete/satrap-mikrowelle-micro-m2/p/5831402</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/kuechengeraete/satrap-mano-xa-handmixer/p/6125818</t>
         </is>
       </c>
       <c r="D16" t="inlineStr"/>
@@ -1350,29 +1328,29 @@
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>Satrap Mikrowelle Micro M2 50% Aktion 49.95 Schweizer Franken statt 99.90 Schweizer Franken</t>
+          <t>satrap Mano XA Handmixer 49.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>2022-07-21 07:04:29</t>
+          <t>2022-07-21 20:57:28</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>5872158</t>
+          <t>5831402</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>satrap Tischventilator Venti 1</t>
+          <t>Satrap Mikrowelle Micro M2</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/satrap-tischventilator-venti-1/p/5872158</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/kuechengeraete/satrap-mikrowelle-micro-m2/p/5831402</t>
         </is>
       </c>
       <c r="D17" t="inlineStr"/>
@@ -1387,7 +1365,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>29.95</t>
+          <t>49.95</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -1396,17 +1374,17 @@
       <c r="L17" t="inlineStr"/>
       <c r="M17" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'haushaltsgeraete-kabel']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'kuechengeraete']</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>satrap Tischventilator Venti 1 29.95 Schweizer Franken</t>
+          <t>Satrap Mikrowelle Micro M2 50% Aktion 49.95 Schweizer Franken statt 99.90 Schweizer Franken</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>2022-07-21 07:04:29</t>
+          <t>2022-07-21 20:57:28</t>
         </is>
       </c>
     </row>
@@ -1457,7 +1435,7 @@
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>2022-07-21 07:04:29</t>
+          <t>2022-07-21 20:57:28</t>
         </is>
       </c>
     </row>
@@ -1508,7 +1486,7 @@
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>2022-07-21 07:04:29</t>
+          <t>2022-07-21 20:57:28</t>
         </is>
       </c>
     </row>
@@ -1559,7 +1537,7 @@
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>2022-07-21 07:04:29</t>
+          <t>2022-07-21 20:57:28</t>
         </is>
       </c>
     </row>
@@ -1612,7 +1590,7 @@
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>2022-07-21 07:04:29</t>
+          <t>2022-07-21 20:57:28</t>
         </is>
       </c>
     </row>
@@ -1663,7 +1641,7 @@
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>2022-07-21 07:04:29</t>
+          <t>2022-07-21 20:57:28</t>
         </is>
       </c>
     </row>
@@ -1714,7 +1692,7 @@
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>2022-07-21 07:04:29</t>
+          <t>2022-07-21 20:57:28</t>
         </is>
       </c>
     </row>
@@ -1767,7 +1745,7 @@
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>2022-07-21 07:04:29</t>
+          <t>2022-07-21 20:57:28</t>
         </is>
       </c>
     </row>
@@ -1838,7 +1816,7 @@
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>2022-07-21 07:04:29</t>
+          <t>2022-07-21 20:57:28</t>
         </is>
       </c>
     </row>
@@ -1909,7 +1887,7 @@
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>2022-07-21 07:04:29</t>
+          <t>2022-07-21 20:57:28</t>
         </is>
       </c>
     </row>
@@ -1980,7 +1958,7 @@
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>2022-07-21 07:04:29</t>
+          <t>2022-07-21 20:57:28</t>
         </is>
       </c>
     </row>
@@ -2051,7 +2029,7 @@
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>2022-07-21 07:04:29</t>
+          <t>2022-07-21 20:57:28</t>
         </is>
       </c>
     </row>
@@ -2122,7 +2100,7 @@
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>2022-07-21 07:04:29</t>
+          <t>2022-07-21 20:57:28</t>
         </is>
       </c>
     </row>
@@ -2193,7 +2171,7 @@
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>2022-07-21 07:04:29</t>
+          <t>2022-07-21 20:57:28</t>
         </is>
       </c>
     </row>
